--- a/report/画面一覧.xlsx
+++ b/report/画面一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4920" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>画面概要</t>
     <rPh sb="0" eb="2">
@@ -161,6 +161,25 @@
   </si>
   <si>
     <t>I0002</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面設計書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインする画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Login</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -991,9 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5"/>
   <cols>
@@ -1135,24 +1152,34 @@
       <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="20"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
+      <c r="O5" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="22"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>

--- a/report/画面一覧.xlsx
+++ b/report/画面一覧.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8430" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="画面一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
+    <sheet name="画面一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">画面一覧!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>画面概要</t>
     <rPh sb="0" eb="2">
@@ -182,6 +184,37 @@
     <t>ログイン画面</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -537,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -681,6 +714,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,9 +1024,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="23"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="34"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="34"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="33">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="32"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="24">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="32"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="33">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="34"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="32"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="32"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="24">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="32"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="33">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="32"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="24">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="32"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="33">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="32"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="32"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="33">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="32"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="24">
+        <v>15</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="32"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="33">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="32"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="24">
+        <v>17</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="32"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="24">
+        <v>18</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="32"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="33">
+        <v>19</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="32"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="24">
+        <v>20</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="32"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="24"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="32"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="47"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/report/画面一覧.xlsx
+++ b/report/画面一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="27870" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>画面概要</t>
     <rPh sb="0" eb="2">
@@ -213,6 +213,59 @@
     <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メイン画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン後表示するメイン画面（初期表示はboard）</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0003を追記</t>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面一覧</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1027,7 +1080,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -1082,15 +1135,23 @@
       <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="49">
+        <v>44646</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="28"/>
+      <c r="G3" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
+      <c r="J3" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
@@ -1819,7 +1880,7 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -2055,24 +2116,34 @@
       <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>29</v>
+      </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
-      <c r="O7" s="28"/>
+      <c r="O7" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="P7" s="29"/>
       <c r="Q7" s="29"/>
       <c r="R7" s="30"/>
-      <c r="S7" s="28"/>
+      <c r="S7" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="T7" s="29"/>
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>

--- a/report/画面一覧.xlsx
+++ b/report/画面一覧.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="27870" windowHeight="12315"/>
+    <workbookView xWindow="1176" yWindow="0" windowWidth="23256" windowHeight="12312"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
     <sheet name="画面一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AF$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>画面概要</t>
     <rPh sb="0" eb="2">
@@ -266,6 +266,51 @@
   </si>
   <si>
     <t>画面一覧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BoardRegist</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板の内容を作成する画面</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金哲湖</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0005を追記</t>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -273,32 +318,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -833,7 +878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -868,7 +913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,18 +1125,18 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.75" style="10"/>
+    <col min="2" max="2" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.69921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
-    <row r="2" spans="1:28">
+    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1176,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="23"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1171,19 +1216,27 @@
       <c r="AA3" s="31"/>
       <c r="AB3" s="32"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="49">
+        <v>44694</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="29"/>
+      <c r="J4" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
@@ -1203,7 +1256,7 @@
       <c r="AA4" s="29"/>
       <c r="AB4" s="34"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -1215,7 +1268,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="29"/>
       <c r="I5" s="30"/>
-      <c r="J5" s="29"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
@@ -1235,7 +1288,7 @@
       <c r="AA5" s="29"/>
       <c r="AB5" s="34"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -1267,7 +1320,7 @@
       <c r="AA6" s="31"/>
       <c r="AB6" s="32"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -1299,7 +1352,7 @@
       <c r="AA7" s="31"/>
       <c r="AB7" s="32"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="33">
         <v>6</v>
       </c>
@@ -1331,7 +1384,7 @@
       <c r="AA8" s="29"/>
       <c r="AB8" s="34"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -1363,7 +1416,7 @@
       <c r="AA9" s="31"/>
       <c r="AB9" s="32"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -1395,7 +1448,7 @@
       <c r="AA10" s="31"/>
       <c r="AB10" s="32"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -1427,7 +1480,7 @@
       <c r="AA11" s="31"/>
       <c r="AB11" s="32"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -1459,7 +1512,7 @@
       <c r="AA12" s="31"/>
       <c r="AB12" s="32"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>11</v>
       </c>
@@ -1491,7 +1544,7 @@
       <c r="AA13" s="31"/>
       <c r="AB13" s="32"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="33">
         <v>12</v>
       </c>
@@ -1523,7 +1576,7 @@
       <c r="AA14" s="31"/>
       <c r="AB14" s="32"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>13</v>
       </c>
@@ -1555,7 +1608,7 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="32"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="33">
         <v>14</v>
       </c>
@@ -1587,7 +1640,7 @@
       <c r="AA16" s="31"/>
       <c r="AB16" s="32"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -1619,7 +1672,7 @@
       <c r="AA17" s="31"/>
       <c r="AB17" s="32"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="33">
         <v>16</v>
       </c>
@@ -1651,7 +1704,7 @@
       <c r="AA18" s="31"/>
       <c r="AB18" s="32"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="24">
         <v>17</v>
       </c>
@@ -1683,7 +1736,7 @@
       <c r="AA19" s="31"/>
       <c r="AB19" s="32"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -1715,7 +1768,7 @@
       <c r="AA20" s="31"/>
       <c r="AB20" s="32"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="33">
         <v>19</v>
       </c>
@@ -1747,7 +1800,7 @@
       <c r="AA21" s="31"/>
       <c r="AB21" s="32"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="24">
         <v>20</v>
       </c>
@@ -1779,7 +1832,7 @@
       <c r="AA22" s="31"/>
       <c r="AB22" s="32"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="24"/>
       <c r="B23" s="35"/>
       <c r="C23" s="38"/>
@@ -1809,7 +1862,7 @@
       <c r="AA23" s="31"/>
       <c r="AB23" s="32"/>
     </row>
-    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="44"/>
@@ -1839,7 +1892,7 @@
       <c r="AA24" s="45"/>
       <c r="AB24" s="47"/>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -1880,16 +1933,16 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="3.75" style="10"/>
+    <col min="2" max="16384" width="3.69921875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1935,7 +1988,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="9"/>
     </row>
-    <row r="2" spans="1:32" ht="19.5" thickBot="1">
+    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1973,8 +2026,8 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
-    <row r="4" spans="1:32">
+    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2073,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="23"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -2066,7 +2119,7 @@
       <c r="AE5" s="31"/>
       <c r="AF5" s="32"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -2112,7 +2165,7 @@
       <c r="AE6" s="29"/>
       <c r="AF6" s="34"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>3</v>
       </c>
@@ -2158,33 +2211,43 @@
       <c r="AE7" s="29"/>
       <c r="AF7" s="34"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="31"/>
@@ -2194,7 +2257,7 @@
       <c r="AE8" s="31"/>
       <c r="AF8" s="32"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>5</v>
       </c>
@@ -2230,7 +2293,7 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="32"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="33">
         <v>6</v>
       </c>
@@ -2266,7 +2329,7 @@
       <c r="AE10" s="29"/>
       <c r="AF10" s="34"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>7</v>
       </c>
@@ -2302,7 +2365,7 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="32"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="33">
         <v>8</v>
       </c>
@@ -2338,7 +2401,7 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="32"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>9</v>
       </c>
@@ -2374,7 +2437,7 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="32"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="33">
         <v>10</v>
       </c>
@@ -2410,7 +2473,7 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="32"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>11</v>
       </c>
@@ -2446,7 +2509,7 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="32"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="33">
         <v>12</v>
       </c>
@@ -2482,7 +2545,7 @@
       <c r="AE16" s="31"/>
       <c r="AF16" s="32"/>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>13</v>
       </c>
@@ -2518,7 +2581,7 @@
       <c r="AE17" s="31"/>
       <c r="AF17" s="32"/>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -2554,7 +2617,7 @@
       <c r="AE18" s="31"/>
       <c r="AF18" s="32"/>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A19" s="24">
         <v>15</v>
       </c>
@@ -2590,7 +2653,7 @@
       <c r="AE19" s="31"/>
       <c r="AF19" s="32"/>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -2626,7 +2689,7 @@
       <c r="AE20" s="31"/>
       <c r="AF20" s="32"/>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A21" s="24">
         <v>17</v>
       </c>
@@ -2662,7 +2725,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="32"/>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A22" s="24">
         <v>18</v>
       </c>
@@ -2698,7 +2761,7 @@
       <c r="AE22" s="31"/>
       <c r="AF22" s="32"/>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A23" s="33">
         <v>19</v>
       </c>
@@ -2734,7 +2797,7 @@
       <c r="AE23" s="31"/>
       <c r="AF23" s="32"/>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A24" s="24">
         <v>20</v>
       </c>
@@ -2770,7 +2833,7 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="32"/>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A25" s="24"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
@@ -2804,7 +2867,7 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="32"/>
     </row>
-    <row r="26" spans="1:32" ht="19.5" thickBot="1">
+    <row r="26" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -2838,7 +2901,7 @@
       <c r="AE26" s="45"/>
       <c r="AF26" s="47"/>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>

--- a/report/画面一覧.xlsx
+++ b/report/画面一覧.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E5628-EA57-4835-ABA9-DD6FC21AA050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="23256" windowHeight="12312"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>画面概要</t>
     <rPh sb="0" eb="2">
@@ -286,16 +287,7 @@
       <t>ゴ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
+      <t>ヒョウジガメンショキヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -312,13 +304,57 @@
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BoardContents</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掲示板の詳細内容を確認する画面</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジガメンショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孟元永</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孟元永</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I0004を追記</t>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022-05-24</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +391,19 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -370,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -661,6 +710,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -668,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -817,10 +888,49 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -878,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,9 +1021,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,6 +1073,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1121,12 +1265,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1260,15 +1402,23 @@
       <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="59">
+        <v>44705</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
@@ -1929,12 +2079,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1967,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="3"/>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="57" t="s">
         <v>11</v>
       </c>
       <c r="T1" s="5"/>
@@ -2009,7 +2157,9 @@
         <v>7</v>
       </c>
       <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
+      <c r="S2" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
@@ -2019,14 +2169,18 @@
         <v>6</v>
       </c>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="15"/>
+      <c r="AA2" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="AB2" s="16"/>
       <c r="AC2" s="16"/>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S3" s="62"/>
+    </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>5</v>
@@ -2212,40 +2366,40 @@
       <c r="AF7" s="34"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="33">
+      <c r="A8" s="50">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
+      <c r="B8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
       <c r="W8" s="29"/>
       <c r="X8" s="29"/>
       <c r="Y8" s="31"/>
@@ -2258,27 +2412,37 @@
       <c r="AF8" s="32"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="24">
+      <c r="A9" s="58">
         <v>5</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
-      <c r="O9" s="28"/>
+      <c r="O9" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
       <c r="R9" s="30"/>
-      <c r="S9" s="28"/>
+      <c r="S9" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>

--- a/report/画面一覧.xlsx
+++ b/report/画面一覧.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E5628-EA57-4835-ABA9-DD6FC21AA050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
     <sheet name="画面一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AF$26</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -353,33 +352,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -393,14 +392,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
@@ -739,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -888,6 +885,33 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,37 +924,19 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1021,23 +1027,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1073,23 +1062,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1265,20 +1237,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="10"/>
+    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
       <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1292,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="23"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1358,25 +1332,25 @@
       <c r="AA3" s="31"/>
       <c r="AB3" s="32"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="53">
         <v>44694</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="28" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="55" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="29"/>
@@ -1398,20 +1372,20 @@
       <c r="AA4" s="29"/>
       <c r="AB4" s="34"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="58">
         <v>44705</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="57" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="55"/>
@@ -1438,7 +1412,7 @@
       <c r="AA5" s="29"/>
       <c r="AB5" s="34"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="A6" s="33">
         <v>4</v>
       </c>
@@ -1470,7 +1444,7 @@
       <c r="AA6" s="31"/>
       <c r="AB6" s="32"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -1502,7 +1476,7 @@
       <c r="AA7" s="31"/>
       <c r="AB7" s="32"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="A8" s="33">
         <v>6</v>
       </c>
@@ -1534,7 +1508,7 @@
       <c r="AA8" s="29"/>
       <c r="AB8" s="34"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="A9" s="24">
         <v>7</v>
       </c>
@@ -1566,7 +1540,7 @@
       <c r="AA9" s="31"/>
       <c r="AB9" s="32"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="A10" s="33">
         <v>8</v>
       </c>
@@ -1598,7 +1572,7 @@
       <c r="AA10" s="31"/>
       <c r="AB10" s="32"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="A11" s="24">
         <v>9</v>
       </c>
@@ -1630,7 +1604,7 @@
       <c r="AA11" s="31"/>
       <c r="AB11" s="32"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="A12" s="33">
         <v>10</v>
       </c>
@@ -1662,7 +1636,7 @@
       <c r="AA12" s="31"/>
       <c r="AB12" s="32"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="A13" s="24">
         <v>11</v>
       </c>
@@ -1694,7 +1668,7 @@
       <c r="AA13" s="31"/>
       <c r="AB13" s="32"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="A14" s="33">
         <v>12</v>
       </c>
@@ -1726,7 +1700,7 @@
       <c r="AA14" s="31"/>
       <c r="AB14" s="32"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="A15" s="24">
         <v>13</v>
       </c>
@@ -1758,7 +1732,7 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="32"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="A16" s="33">
         <v>14</v>
       </c>
@@ -1790,7 +1764,7 @@
       <c r="AA16" s="31"/>
       <c r="AB16" s="32"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -1822,7 +1796,7 @@
       <c r="AA17" s="31"/>
       <c r="AB17" s="32"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28">
       <c r="A18" s="33">
         <v>16</v>
       </c>
@@ -1854,7 +1828,7 @@
       <c r="AA18" s="31"/>
       <c r="AB18" s="32"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28">
       <c r="A19" s="24">
         <v>17</v>
       </c>
@@ -1886,7 +1860,7 @@
       <c r="AA19" s="31"/>
       <c r="AB19" s="32"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28">
       <c r="A20" s="24">
         <v>18</v>
       </c>
@@ -1918,7 +1892,7 @@
       <c r="AA20" s="31"/>
       <c r="AB20" s="32"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28">
       <c r="A21" s="33">
         <v>19</v>
       </c>
@@ -1950,7 +1924,7 @@
       <c r="AA21" s="31"/>
       <c r="AB21" s="32"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28">
       <c r="A22" s="24">
         <v>20</v>
       </c>
@@ -1982,7 +1956,7 @@
       <c r="AA22" s="31"/>
       <c r="AB22" s="32"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28">
       <c r="A23" s="24"/>
       <c r="B23" s="35"/>
       <c r="C23" s="38"/>
@@ -2012,7 +1986,7 @@
       <c r="AA23" s="31"/>
       <c r="AB23" s="32"/>
     </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="44"/>
@@ -2042,7 +2016,7 @@
       <c r="AA24" s="45"/>
       <c r="AB24" s="47"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -2079,18 +2053,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="3.69921875" style="10"/>
+    <col min="2" max="16384" width="3.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2115,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="R1" s="3"/>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="50" t="s">
         <v>11</v>
       </c>
       <c r="T1" s="5"/>
@@ -2136,7 +2112,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="9"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2157,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="R2" s="14"/>
-      <c r="S2" s="61" t="s">
+      <c r="S2" s="51" t="s">
         <v>48</v>
       </c>
       <c r="T2" s="16"/>
@@ -2178,10 +2154,10 @@
       <c r="AE2" s="16"/>
       <c r="AF2" s="18"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S3" s="62"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1">
+      <c r="S3" s="52"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -2227,7 +2203,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="23"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -2273,7 +2249,7 @@
       <c r="AE5" s="31"/>
       <c r="AF5" s="32"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32">
       <c r="A6" s="33">
         <v>2</v>
       </c>
@@ -2319,7 +2295,7 @@
       <c r="AE6" s="29"/>
       <c r="AF6" s="34"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32">
       <c r="A7" s="24">
         <v>3</v>
       </c>
@@ -2365,42 +2341,42 @@
       <c r="AE7" s="29"/>
       <c r="AF7" s="34"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="50">
+    <row r="8" spans="1:32">
+      <c r="A8" s="59">
         <v>4</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="57" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="57" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
-      <c r="O8" s="54" t="s">
+      <c r="O8" s="57" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="55"/>
       <c r="Q8" s="55"/>
       <c r="R8" s="56"/>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="57" t="s">
         <v>44</v>
       </c>
       <c r="T8" s="55"/>
       <c r="U8" s="55"/>
       <c r="V8" s="55"/>
-      <c r="W8" s="29"/>
+      <c r="W8" s="55"/>
       <c r="X8" s="29"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
@@ -2411,42 +2387,42 @@
       <c r="AE8" s="31"/>
       <c r="AF8" s="32"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="58">
+    <row r="9" spans="1:32">
+      <c r="A9" s="63">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="28" t="s">
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="28" t="s">
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="28" t="s">
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
       <c r="X9" s="29"/>
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
@@ -2457,32 +2433,32 @@
       <c r="AE9" s="31"/>
       <c r="AF9" s="32"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="33">
+    <row r="10" spans="1:32">
+      <c r="A10" s="65">
         <v>6</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
       <c r="X10" s="29"/>
       <c r="Y10" s="29"/>
       <c r="Z10" s="29"/>
@@ -2493,7 +2469,7 @@
       <c r="AE10" s="29"/>
       <c r="AF10" s="34"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32">
       <c r="A11" s="24">
         <v>7</v>
       </c>
@@ -2529,7 +2505,7 @@
       <c r="AE11" s="31"/>
       <c r="AF11" s="32"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32">
       <c r="A12" s="33">
         <v>8</v>
       </c>
@@ -2565,7 +2541,7 @@
       <c r="AE12" s="31"/>
       <c r="AF12" s="32"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32">
       <c r="A13" s="24">
         <v>9</v>
       </c>
@@ -2601,7 +2577,7 @@
       <c r="AE13" s="31"/>
       <c r="AF13" s="32"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32">
       <c r="A14" s="33">
         <v>10</v>
       </c>
@@ -2637,7 +2613,7 @@
       <c r="AE14" s="31"/>
       <c r="AF14" s="32"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32">
       <c r="A15" s="24">
         <v>11</v>
       </c>
@@ -2673,7 +2649,7 @@
       <c r="AE15" s="31"/>
       <c r="AF15" s="32"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32">
       <c r="A16" s="33">
         <v>12</v>
       </c>
@@ -2709,7 +2685,7 @@
       <c r="AE16" s="31"/>
       <c r="AF16" s="32"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32">
       <c r="A17" s="24">
         <v>13</v>
       </c>
@@ -2745,7 +2721,7 @@
       <c r="AE17" s="31"/>
       <c r="AF17" s="32"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -2781,7 +2757,7 @@
       <c r="AE18" s="31"/>
       <c r="AF18" s="32"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32">
       <c r="A19" s="24">
         <v>15</v>
       </c>
@@ -2817,7 +2793,7 @@
       <c r="AE19" s="31"/>
       <c r="AF19" s="32"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -2853,7 +2829,7 @@
       <c r="AE20" s="31"/>
       <c r="AF20" s="32"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32">
       <c r="A21" s="24">
         <v>17</v>
       </c>
@@ -2889,7 +2865,7 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="32"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32">
       <c r="A22" s="24">
         <v>18</v>
       </c>
@@ -2925,7 +2901,7 @@
       <c r="AE22" s="31"/>
       <c r="AF22" s="32"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32">
       <c r="A23" s="33">
         <v>19</v>
       </c>
@@ -2961,7 +2937,7 @@
       <c r="AE23" s="31"/>
       <c r="AF23" s="32"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32">
       <c r="A24" s="24">
         <v>20</v>
       </c>
@@ -2997,7 +2973,7 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="32"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32">
       <c r="A25" s="24"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
@@ -3031,7 +3007,7 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="32"/>
     </row>
-    <row r="26" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" ht="19.5" thickBot="1">
       <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -3065,7 +3041,7 @@
       <c r="AE26" s="45"/>
       <c r="AF26" s="47"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
